--- a/Data/관심주_기타.xlsx
+++ b/Data/관심주_기타.xlsx
@@ -257,14 +257,6 @@
     <t>구분</t>
   </si>
   <si>
-    <t>겨울1
-전기차/자동차부품/수소차(연료전지/부품/충전소 등)/남북경협/드론(Drone)/겨울1
-전기차/자동차부품/수소차(연료전지/부품/충전소 등)/남북경협/드론(Drone)/재무: 매출증가, 순익 대폭흑자전환, 부채비율높음
-기술지표: 120밑에서 5/10/20/60 밀집횡보중
-매집봉: 2023년2월28일 까지 꼬리달고 여러번 발생함
-수급: 외국인 매집중</t>
-  </si>
-  <si>
     <t>봄1
 음식료업종/재무: 매출액 지속상승, 순이익 상승중, 부채비율 적음
 기술지표: 최저가 5000에서 7000까지 상승후 120이평 6000에서 지지후 매집봉 발생
@@ -373,6 +365,13 @@
   </si>
   <si>
     <t>총매도액</t>
+  </si>
+  <si>
+    <t>겨울1
+전기차/자동차부품/수소차(연료전지/부품/충전소 등)/남북경협/드론(Drone)/재무: 매출증가, 순익 대폭흑자전환, 부채비율높음
+기술지표: 120밑에서 5/10/20/60 밀집횡보중
+매집봉: 2023년2월28일 까지 꼬리달고 여러번 발생함
+수급: 외국인 매집중</t>
   </si>
 </sst>
 </file>
@@ -499,7 +498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -555,6 +554,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2406,7 +2408,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2437,7 +2439,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="72">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -2447,8 +2449,8 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>79</v>
+      <c r="D2" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="E2" t="s">
         <v>64</v>
@@ -2465,7 +2467,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
         <v>64</v>
@@ -2482,7 +2484,7 @@
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
         <v>64</v>
@@ -2499,7 +2501,7 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
         <v>64</v>
@@ -2516,7 +2518,7 @@
         <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
         <v>64</v>
@@ -2533,7 +2535,7 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
         <v>64</v>
@@ -2550,7 +2552,7 @@
         <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
         <v>64</v>
@@ -2567,7 +2569,7 @@
         <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
         <v>64</v>
@@ -2584,7 +2586,7 @@
         <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
         <v>64</v>
@@ -2601,7 +2603,7 @@
         <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
         <v>64</v>
@@ -2618,7 +2620,7 @@
         <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
         <v>64</v>
@@ -2635,7 +2637,7 @@
         <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
         <v>64</v>
@@ -2668,28 +2670,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>49</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2724,25 +2726,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>49</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="K1" s="3"/>
     </row>

--- a/Data/관심주_기타.xlsx
+++ b/Data/관심주_기타.xlsx
@@ -327,13 +327,6 @@
 수급: 외인 매집중</t>
   </si>
   <si>
-    <t>여름2
-쿠팡 관련주/교육/온라인 교육/재무: 매출 성장중, 순이익 흑자, 비율 매우매우 좋음
-기술지표: 240선 돌파 눌림목 발행
-매집봉: 2022년 4월후 지속적으로 여러번 발
-수급: 지속적으로 매집중</t>
-  </si>
-  <si>
     <t>매입일</t>
   </si>
   <si>
@@ -372,6 +365,13 @@
 기술지표: 120밑에서 5/10/20/60 밀집횡보중
 매집봉: 2023년2월28일 까지 꼬리달고 여러번 발생함
 수급: 외국인 매집중</t>
+  </si>
+  <si>
+    <t>여름2
+쿠팡 관련주/교육/온라인 교육/재무: 매출 성장중, 순이익 흑자, 비율 매우매우 좋음
+기술지표: 240선 돌파 눌림목 발행
+매집봉: 2022년 4월후 지속적으로 여러번 발생
+수급: 지속적으로 매집중</t>
   </si>
 </sst>
 </file>
@@ -2408,7 +2408,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2450,7 +2450,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
         <v>64</v>
@@ -2626,7 +2626,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="72">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -2636,8 +2636,8 @@
       <c r="C13" t="s">
         <v>48</v>
       </c>
-      <c r="D13" t="s">
-        <v>89</v>
+      <c r="D13" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="E13" t="s">
         <v>64</v>
@@ -2670,28 +2670,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>49</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2726,25 +2726,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>49</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="K1" s="3"/>
     </row>
